--- a/eat.xlsx
+++ b/eat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,100 +444,1131 @@
           <t>note_link</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>img_url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>全国各地的特色美食，吃货们收藏起来</t>
+          <t>深圳老店！！六刷了！！巨好吃！！</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/666af6b800000000060063d4</t>
+          <t>https://www.xiaohongshu.com/explore/6738aa8f000000003c01c81b</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/ae09e2a64c12cc8cdb649c5a50623130/1040g00831a9120lpna005oqi2ftm52g2eu9od70!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>国内八大美食之都，你去过几个</t>
+          <t>深圳，我最怕倒闭的18家小店….🥺🥺</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6691069200000000050043e5</t>
+          <t>https://www.xiaohongshu.com/explore/663905e4000000001e03335e</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/9491e41fd75c9ab5428fb157c4494ec1/1040g008312fc6enkhm3g4a4mv92i1nf2ro333lo!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>全国各省美食地图，假期出行赶紧码住！</t>
+          <t>深圳终于开了！！！人均40！！</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66fa8c07000000002c02965f</t>
+          <t>https://www.xiaohongshu.com/explore/65b4cb70000000002c0288cd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/15f581c2f2eb079d517943d972e1b416/1040g00830ue82eh05650414vcvkhrchuskn4nq8!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中国34省，每个省份的代表性食物是什么</t>
+          <t>跟着深圳土著逛吃深圳😭保姆级攻略‼️</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/65fc2caa00000000120338e0</t>
+          <t>https://www.xiaohongshu.com/explore/672f2ec3000000001b02f3d8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/17228e67f568105eadad421cc41b680f/1040g008319vomf3a6q6g5pmnpvjiub5081skbbg!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>人生建议：总要来一次潮汕！！！！</t>
+          <t>深圳首家！！会带每任crush去吃的漂亮饭！！</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6707bcb6000000001a0218ef</t>
+          <t>https://www.xiaohongshu.com/explore/66f58cbd000000002a033cef</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/ddc0461a768aa334bf3d7a1d23e8c953/1040g0083187fl5b34400490pa3djr8fu5mp5ubg!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>🍜【舌尖上的中国】全国各省美食大合集!</t>
+          <t>本地人才知道的深圳美食合集..好吃无广‼️</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/66744f71000000001c0262f2</t>
+          <t>https://www.xiaohongshu.com/explore/662f6fb5000000001e02387f</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/32400da39dd2b1d030d0374fc0a37335/1040g2sg3127688psks004a0b3bfnk3n8e7nltd8!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>全国各省最具代表性美食，哪个省是你的最爱！</t>
+          <t>深圳coco park！！9️⃣家漂亮饭合集！！快去！！</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/656a885d00000000060207db</t>
+          <t>https://www.xiaohongshu.com/explore/669f86e1000000002701a907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/2beaa74ee83059c851eff9c892a43abd/1040g2sg315jfeje8go0049fnn7h830tvmttkkh8!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中国34省代表美食，舌尖上的中国</t>
+          <t>深圳福田｜会反复去吃的16家美食（附地址）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.xiaohongshu.com/explore/6501867e000000001f00789e</t>
+          <t>https://www.xiaohongshu.com/explore/672f89160000000019017f66</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/d70b46d36c7f36ce2e052b96a9c0cb8f/1040g00831a03mmrjnc005onv1b54g6qf8vo23qo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>深圳这个！！！好好吃啊啊啊啊！！！！</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c33c1d000000001f03e023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/64efc70f1bd2ac9abd79353a9536ea4a/1040g008316mbaj2mji0g5oslcuea34apj7jj9fo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>深圳📍个人觉得🈚️法超越的🔟家店…</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e2e9d90000000026031a5d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/03482632573be23ff85386427ad9fdc1/1040g2sg317l996ddju704a4q29je2evrqrofnqg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>离开深圳前一定要吃的地道小店..（合集</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a27015000000000d00d0c9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/9dd96d9e1997605479f2f91aa0e5ce9a/1040g008315maakufha405n4n5ocknb2u41jt6n8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>深圳本地人推荐📍东门老街⚠️逛吃攻略➕避雷</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/670a724d000000002100608d</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/855727ff6c0cb7c7444433340749b814/1040g008318rsm9443q005okm6upocjisu21g8fo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>深圳！！会展中心站！！超棒的舒芙蕾🥹🥹</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e142e9000000002603c8de</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/8a8f1f80556370c15747a752939d3260/1040g2sg317jll3b0jq70416hvugqj40hve6dqso!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>感谢乌啦啦带路🥹🥹深圳终于也吃到了。。。！！！</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6667dbc4000000000d00c1f4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/23b642f7e1113a22411af04630824c3d/1040g008313t3q76ci600414vcvkhrchum4878s0!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>在深圳！我最害怕倒闭的18家店…………（合集）</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a4c1670000000009014a0d</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/a26ab173d4dee9f1d654834632024714/1040g008315oiqrgb0u0040s9ie703mk807lhcoo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/665aefbe000000000f00fdc6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/bbd64473d909c49c97632e72ecfcc873/1040g2sg313gg04nr0070490pa3djr8fua9j64qo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>深圳首家！！！！三文鱼波奇饭！！！！</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6728959d000000001901bd3c</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/5598dd963b70c6c3172932f8963ead54/1040g008319pag46u6o004a4mv92i1nf2lfk0890!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>深圳老店！！六刷了！！巨好吃！！</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6738aa8f000000003c01c81b</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/ae09e2a64c12cc8cdb649c5a50623130/1040g00831a9120lpna005oqi2ftm52g2eu9od70!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>深圳，我最怕倒闭的18家小店….🥺🥺</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/663905e4000000001e03335e</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/9491e41fd75c9ab5428fb157c4494ec1/1040g008312fc6enkhm3g4a4mv92i1nf2ro333lo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>深圳终于开了！！！人均40！！</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/65b4cb70000000002c0288cd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/15f581c2f2eb079d517943d972e1b416/1040g00830ue82eh05650414vcvkhrchuskn4nq8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>跟着深圳土著逛吃深圳😭保姆级攻略‼️</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/672f2ec3000000001b02f3d8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/17228e67f568105eadad421cc41b680f/1040g008319vomf3a6q6g5pmnpvjiub5081skbbg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>深圳首家！！会带每任crush去吃的漂亮饭！！</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66f58cbd000000002a033cef</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/ddc0461a768aa334bf3d7a1d23e8c953/1040g0083187fl5b34400490pa3djr8fu5mp5ubg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>本地人才知道的深圳美食合集..好吃无广‼️</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/662f6fb5000000001e02387f</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/32400da39dd2b1d030d0374fc0a37335/1040g2sg3127688psks004a0b3bfnk3n8e7nltd8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>深圳coco park！！9️⃣家漂亮饭合集！！快去！！</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/669f86e1000000002701a907</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/2beaa74ee83059c851eff9c892a43abd/1040g2sg315jfeje8go0049fnn7h830tvmttkkh8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>深圳福田｜会反复去吃的16家美食（附地址）</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/672f89160000000019017f66</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/d70b46d36c7f36ce2e052b96a9c0cb8f/1040g00831a03mmrjnc005onv1b54g6qf8vo23qo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>深圳这个！！！好好吃啊啊啊啊！！！！</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c33c1d000000001f03e023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/64efc70f1bd2ac9abd79353a9536ea4a/1040g008316mbaj2mji0g5oslcuea34apj7jj9fo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>深圳📍个人觉得🈚️法超越的🔟家店…</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e2e9d90000000026031a5d</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/03482632573be23ff85386427ad9fdc1/1040g2sg317l996ddju704a4q29je2evrqrofnqg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>离开深圳前一定要吃的地道小店..（合集</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a27015000000000d00d0c9</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/9dd96d9e1997605479f2f91aa0e5ce9a/1040g008315maakufha405n4n5ocknb2u41jt6n8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>深圳本地人推荐📍东门老街⚠️逛吃攻略➕避雷</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/670a724d000000002100608d</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/855727ff6c0cb7c7444433340749b814/1040g008318rsm9443q005okm6upocjisu21g8fo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>深圳！！会展中心站！！超棒的舒芙蕾🥹🥹</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e142e9000000002603c8de</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/8a8f1f80556370c15747a752939d3260/1040g2sg317jll3b0jq70416hvugqj40hve6dqso!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>感谢乌啦啦带路🥹🥹深圳终于也吃到了。。。！！！</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6667dbc4000000000d00c1f4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/23b642f7e1113a22411af04630824c3d/1040g008313t3q76ci600414vcvkhrchum4878s0!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>在深圳！我最害怕倒闭的18家店…………（合集）</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a4c1670000000009014a0d</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/a26ab173d4dee9f1d654834632024714/1040g008315oiqrgb0u0040s9ie703mk807lhcoo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/665aefbe000000000f00fdc6</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/bbd64473d909c49c97632e72ecfcc873/1040g2sg313gg04nr0070490pa3djr8fua9j64qo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>深圳首家！！！！三文鱼波奇饭！！！！</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6728959d000000001901bd3c</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/5598dd963b70c6c3172932f8963ead54/1040g008319pag46u6o004a4mv92i1nf2lfk0890!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>深圳这个！！！好好吃啊啊啊啊！！！！</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c33c1d000000001f03e023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/64efc70f1bd2ac9abd79353a9536ea4a/1040g008316mbaj2mji0g5oslcuea34apj7jj9fo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>深圳📍个人觉得🈚️法超越的🔟家店…</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e2e9d90000000026031a5d</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/03482632573be23ff85386427ad9fdc1/1040g2sg317l996ddju704a4q29je2evrqrofnqg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>离开深圳前一定要吃的地道小店..（合集</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a27015000000000d00d0c9</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/9dd96d9e1997605479f2f91aa0e5ce9a/1040g008315maakufha405n4n5ocknb2u41jt6n8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>深圳本地人推荐📍东门老街⚠️逛吃攻略➕避雷</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/670a724d000000002100608d</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/855727ff6c0cb7c7444433340749b814/1040g008318rsm9443q005okm6upocjisu21g8fo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>深圳！！会展中心站！！超棒的舒芙蕾🥹🥹</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66e142e9000000002603c8de</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/8a8f1f80556370c15747a752939d3260/1040g2sg317jll3b0jq70416hvugqj40hve6dqso!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>感谢乌啦啦带路🥹🥹深圳终于也吃到了。。。！！！</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6667dbc4000000000d00c1f4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/23b642f7e1113a22411af04630824c3d/1040g008313t3q76ci600414vcvkhrchum4878s0!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>在深圳！我最害怕倒闭的18家店…………（合集）</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66a4c1670000000009014a0d</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/a26ab173d4dee9f1d654834632024714/1040g008315oiqrgb0u0040s9ie703mk807lhcoo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/665aefbe000000000f00fdc6</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/bbd64473d909c49c97632e72ecfcc873/1040g2sg313gg04nr0070490pa3djr8fua9j64qo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>深圳首家！！！！三文鱼波奇饭！！！！</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6728959d000000001901bd3c</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/5598dd963b70c6c3172932f8963ead54/1040g008319pag46u6o004a4mv92i1nf2lfk0890!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>会带每一任对象去约会的穷鬼漂亮饭！！！</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/67089e45000000002a030a68</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/80e59eca5a20a793f52bb1f17195866a/1040g008318q3i0ag3u004a5ubfcquul47n9na1o!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>在深圳我最害怕倒闭的9️⃣家店！！（合集）</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6635f20f000000001e0237a4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/39d64b908becb7e731ebbe65e7265454/1040g2sg312k65d2f0m704brsvlkfg40hhp3jeao!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>深圳福田！！去吃过3次以上的漂亮店！（附店名</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66af447e0000000027010412</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/a37d0da254020798c830257ec03f55a6/1040g0083162ra8tl1e004a3hu7rqe5n2vac3368!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>在深圳，我坠害怕倒闭的小店。。。🥲</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6687ca0c000000000d00e242</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/fb4d176ed0628b3db688479bba7fc005/1040g008314tq3lai14005oqi2ftm52g2cg5l2mg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>深圳最伟大nb的三件套🍂🫧🧁</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/672add8a000000001d038229</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/6b70042a2b379292324d2bf32608155f/1040g2sg319rft91mn2bg4a5ubfcquul48d12ltg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>感谢乌啦啦🙏这家真的深圳前三。。。。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66680d32000000001c03666e</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/93549227aa7221023a8f17dc850594f7/1040g008313u7h2cd2c005occfeq40tl5qfgascg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d86aef000000001f03e0e4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/7c024342b10e5219e722b45a0bdd48fc/1040g008317b1931uk600490pa3djr8fug9jn77g!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/665aefbe000000000f00fdc6</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/bbd64473d909c49c97632e72ecfcc873/1040g2sg313gg04nr0070490pa3djr8fua9j64qo!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>深圳首家！！！！三文鱼波奇饭！！！！</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6728959d000000001901bd3c</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/5598dd963b70c6c3172932f8963ead54/1040g008319pag46u6o004a4mv92i1nf2lfk0890!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>会带每一任对象去约会的穷鬼漂亮饭！！！</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/67089e45000000002a030a68</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/80e59eca5a20a793f52bb1f17195866a/1040g008318q3i0ag3u004a5ubfcquul47n9na1o!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>在深圳我最害怕倒闭的9️⃣家店！！（合集）</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6635f20f000000001e0237a4</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/39d64b908becb7e731ebbe65e7265454/1040g2sg312k65d2f0m704brsvlkfg40hhp3jeao!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>深圳福田！！去吃过3次以上的漂亮店！（附店名</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66af447e0000000027010412</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/a37d0da254020798c830257ec03f55a6/1040g0083162ra8tl1e004a3hu7rqe5n2vac3368!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>在深圳，我坠害怕倒闭的小店。。。🥲</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6687ca0c000000000d00e242</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/fb4d176ed0628b3db688479bba7fc005/1040g008314tq3lai14005oqi2ftm52g2cg5l2mg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>深圳最伟大nb的三件套🍂🫧🧁</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/672add8a000000001d038229</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/6b70042a2b379292324d2bf32608155f/1040g2sg319rft91mn2bg4a5ubfcquul48d12ltg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>感谢乌啦啦🙏这家真的深圳前三。。。。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66680d32000000001c03666e</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/93549227aa7221023a8f17dc850594f7/1040g008313u7h2cd2c005occfeq40tl5qfgascg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66d86aef000000001f03e0e4</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/7c024342b10e5219e722b45a0bdd48fc/1040g008317b1931uk600490pa3djr8fug9jn77g!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>合集)深圳9月吃吃喝喝13家餐厅排行榜🏆</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/6703d4f7000000002a031209</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/beea57c60a20bf4a937d7895aa0893a3/1040g008318ldvm4dk40048r82hmm1v321gipmj8!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>深圳龙岗区值得吃的美食‼️🔟家</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/670bc23c000000002401a6de</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/df2173b5908b843d815136a0b055b48e/1040g008318t5lvulgs00492ga9h1qvfet89lbdg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>唯一的缺点：深圳限定。。。🥹🥹</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66f22dac000000002a0328d9</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/44aca510a256312574d387457a61f767/1040g2sg31846a34uk47049v7j3d564cvctaakdg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>深圳！吃完后八合里再也不想去了</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c85178000000001f0151d8</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/6fd92bab6717e0626eacd241a154e159/1040g008316ra5s6kk4004alf5v5ks3uqmpuba40!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>深圳龙华区必吃老店推荐来咯，建议马住❗❗❗</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66c8a130000000001d01ac73</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/a4983236f769d9ffb97635756cc7b400/1040g008316rjt52ogo004afm4gr15tapjumd4tg!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>🇭🇰港女来深圳的第一件事！！！！！</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/671b8ea50000000021001fa8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/f3f1ed05a9a9c8394ad66dc7582b1258/1040g2sg319cjd0tnmc704btuq5ml66oj4lkdr78!nc_n_webp_mw_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>深圳！宝安壹方城！！快去吃！！！</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.xiaohongshu.com/explore/66cd3e6f000000001f01ed92</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://sns-webpic-qc.xhscdn.com/202411181538/815d4b2cb9e7874a194ee849aab5393d/1040g2sg317040p5mjmbg5p48jdlamhv5s9vjjs0!nc_n_webp_mw_1</t>
         </is>
       </c>
     </row>
